--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2304.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2304.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.046905182508071</v>
+        <v>0.9394612908363342</v>
       </c>
       <c r="B1">
-        <v>2.495657982858226</v>
+        <v>1.439923048019409</v>
       </c>
       <c r="C1">
-        <v>2.220291482742049</v>
+        <v>2.572733879089355</v>
       </c>
       <c r="D1">
-        <v>2.444734723935215</v>
+        <v>2.643383264541626</v>
       </c>
       <c r="E1">
-        <v>3.049469308896552</v>
+        <v>1.114669442176819</v>
       </c>
     </row>
   </sheetData>
